--- a/results/summary files/rep1_run1/all_results_with_plots.xlsx
+++ b/results/summary files/rep1_run1/all_results_with_plots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work (Yr 2 Sem 1)\Thesis\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work (Yr 2 Sem 1)\Thesis\results\summary files\rep1_run1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0F863-E712-4EFD-A975-1211778481EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A071D1-7E53-476F-83C3-B77A9A42075C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="20">
   <si>
     <t>artificial_uniform_distinct</t>
   </si>
@@ -2375,15 +2375,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>170460</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>48540</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>71400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>179985</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>52350</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>75210</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2412,7 +2412,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="170460" y="13033020"/>
+          <a:off x="0" y="13787400"/>
           <a:ext cx="7324725" cy="4210050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2425,15 +2425,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>76620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>146685</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>179490</xdr:rowOff>
+      <xdr:colOff>177165</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>80430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2462,7 +2462,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="137160" y="17549280"/>
+          <a:off x="167640" y="18364620"/>
           <a:ext cx="7324725" cy="4210050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2525,15 +2525,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>346140</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>41340</xdr:rowOff>
+      <xdr:colOff>262320</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>117540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>355665</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>45150</xdr:rowOff>
+      <xdr:colOff>271845</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>121350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2562,7 +2562,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7661340" y="13025820"/>
+          <a:off x="7577520" y="13650660"/>
           <a:ext cx="7324725" cy="4210050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2575,15 +2575,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>267540</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:colOff>840</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>54180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>277065</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>172290</xdr:rowOff>
+      <xdr:colOff>10365</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>57990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2612,7 +2612,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7582740" y="17542080"/>
+          <a:off x="7316040" y="18342180"/>
           <a:ext cx="7324725" cy="4210050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10794,10 +10794,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11936,6 +11936,168 @@
         <v>0.61</v>
       </c>
     </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>0.882041761053729</v>
+      </c>
+      <c r="C66">
+        <v>0.88260795621933807</v>
+      </c>
+      <c r="D66">
+        <v>0.91791915063587792</v>
+      </c>
+      <c r="E66">
+        <v>0.88534534590319658</v>
+      </c>
+      <c r="F66">
+        <v>0.87598746263400029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>2.4449140518168231</v>
+      </c>
+      <c r="C67">
+        <v>2.548776716957037</v>
+      </c>
+      <c r="D67">
+        <v>2.0235906875439844</v>
+      </c>
+      <c r="E67">
+        <v>2.2829123450279694</v>
+      </c>
+      <c r="F67">
+        <v>2.4243985502573473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>0.91</v>
+      </c>
+      <c r="C68">
+        <v>0.72</v>
+      </c>
+      <c r="D68">
+        <v>0.83</v>
+      </c>
+      <c r="E68">
+        <v>0.82</v>
+      </c>
+      <c r="F68">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>0.9</v>
+      </c>
+      <c r="C69">
+        <v>0.98</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0.98</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>0.91</v>
+      </c>
+      <c r="C70">
+        <v>0.67</v>
+      </c>
+      <c r="D70">
+        <v>0.8</v>
+      </c>
+      <c r="E70">
+        <v>0.79</v>
+      </c>
+      <c r="F70">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71">
+        <v>0.66</v>
+      </c>
+      <c r="C71">
+        <v>0.36</v>
+      </c>
+      <c r="D71">
+        <v>0.49</v>
+      </c>
+      <c r="E71">
+        <v>0.47</v>
+      </c>
+      <c r="F71">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>0.76</v>
+      </c>
+      <c r="C72">
+        <v>0.53</v>
+      </c>
+      <c r="D72">
+        <v>0.66</v>
+      </c>
+      <c r="E72">
+        <v>0.64</v>
+      </c>
+      <c r="F72">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
